--- a/tests/artifact/script/AuditLogs.xlsx
+++ b/tests/artifact/script/AuditLogs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -26573,8 +26573,8 @@
   <sheetPr/>
   <dimension ref="A1:O194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -30508,13 +30508,13 @@
   <sheetPr/>
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20" style="46" customWidth="1"/>
+    <col min="1" max="1" width="53" style="46" customWidth="1"/>
     <col min="2" max="2" width="32.3" style="47" customWidth="1"/>
     <col min="3" max="3" width="10.8333333333333" style="48" customWidth="1"/>
     <col min="4" max="4" width="30.8333333333333" style="49" customWidth="1"/>
@@ -34334,7 +34334,7 @@
   <dimension ref="A1:O190"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
@@ -37853,9 +37853,9 @@
   <dimension ref="A1:O184"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
